--- a/UnityBasic2_RP/Assets/Data/Data.xlsx
+++ b/UnityBasic2_RP/Assets/Data/Data.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="19290" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="2" r:id="rId2"/>
+    <sheet name="Character" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +25,182 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>이원림</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이원림</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type : int
+0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">중앙
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">오론쪽
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">왼쪽
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">오른쪽
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>왼쪽</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Name_S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +211,138 @@
   </si>
   <si>
     <t>bbno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤비 기본 표정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤비 웃는 표정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤비 당황 표정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은호 기본 표정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은호 웃는 표정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>background1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 은호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 난 소희야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sohi_smile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sohi_basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sohi_confusion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 내 이름이 뭔지 모르겠네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버호, 날아가는 모양~ Fly~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boyroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysd_p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysd_laugh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 사실 밤비랄까</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -42,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +364,41 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +421,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -362,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -388,4 +743,258 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10102.102010000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10201</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10101.10202</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10202</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UnityBasic2_RP/Assets/Data/Data.xlsx
+++ b/UnityBasic2_RP/Assets/Data/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="19290" windowHeight="9465" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19290" windowHeight="9465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Name_S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,18 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sohi_smile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sohi_basic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sohi_confusion1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나도 내 이름이 뭔지 모르겠네</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,15 +322,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ysd_p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ysd_laugh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아니 사실 밤비랄까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10101,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10201,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sohi_basic,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sohi_smile,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sohi_confusion1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysd_p,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysd_laugh,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -765,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
@@ -785,11 +816,11 @@
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1">
-        <v>10101</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -803,14 +834,14 @@
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1">
-        <v>10102.102010000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.2</v>
+      <c r="C3" s="5">
+        <v>1010210201</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -821,14 +852,14 @@
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1">
-        <v>10101</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -837,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
-        <v>10201</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
@@ -855,22 +886,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10101.10202</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.4</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1010110202</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -878,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -919,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -936,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -953,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -970,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -987,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
